--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp7-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,10 +558,10 @@
         <v>10.530571</v>
       </c>
       <c r="O2">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588634</v>
       </c>
       <c r="P2">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588635</v>
       </c>
       <c r="Q2">
         <v>0.2572384482611111</v>
@@ -567,10 +570,10 @@
         <v>2.31514603435</v>
       </c>
       <c r="S2">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588634</v>
       </c>
       <c r="T2">
-        <v>0.8478537661184122</v>
+        <v>0.7927501397588635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,28 +614,90 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.629899</v>
+        <v>0.8869683333333332</v>
       </c>
       <c r="N3">
-        <v>1.889697</v>
+        <v>2.660905</v>
       </c>
       <c r="O3">
-        <v>0.1521462338815877</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="P3">
-        <v>0.1521462338815877</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="Q3">
-        <v>0.04616109838333333</v>
+        <v>0.06499999602777777</v>
       </c>
       <c r="R3">
-        <v>0.4154498854499999</v>
+        <v>0.5849999642499999</v>
       </c>
       <c r="S3">
-        <v>0.1521462338815877</v>
+        <v>0.2003151406163121</v>
       </c>
       <c r="T3">
-        <v>0.1521462338815877</v>
+        <v>0.2003151406163121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.07328333333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.21985</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.030706</v>
+      </c>
+      <c r="N4">
+        <v>0.09211800000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.006934719624824425</v>
+      </c>
+      <c r="P4">
+        <v>0.006934719624824427</v>
+      </c>
+      <c r="Q4">
+        <v>0.002250238033333333</v>
+      </c>
+      <c r="R4">
+        <v>0.0202521423</v>
+      </c>
+      <c r="S4">
+        <v>0.006934719624824425</v>
+      </c>
+      <c r="T4">
+        <v>0.006934719624824427</v>
       </c>
     </row>
   </sheetData>
